--- a/2.1.xlsx
+++ b/2.1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Ethical Quandary (regarding selling personal information for profit)</t>
   </si>
@@ -34,6 +34,15 @@
     <t>Apple App Store</t>
   </si>
   <si>
+    <t xml:space="preserve">Society </t>
+  </si>
+  <si>
+    <t>National security</t>
+  </si>
+  <si>
+    <t>Credit rating</t>
+  </si>
+  <si>
     <t>Privacy policies are intentionally confusing</t>
   </si>
   <si>
@@ -55,9 +64,6 @@
     <t>If above is false, then they did consent</t>
   </si>
   <si>
-    <t xml:space="preserve">People are largely unaware that their information is being sold </t>
-  </si>
-  <si>
     <t>Data can be shared around very quickly without customer knowing; loss of privacy</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
   </si>
   <si>
     <t>Rich companies can source tons of data and gain even more market power</t>
+  </si>
+  <si>
+    <t>Customers have less security across the internet</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -118,10 +127,13 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,10 +378,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>1</v>
@@ -388,11 +409,20 @@
       </c>
       <c r="G2" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="82.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>1</v>
@@ -410,12 +440,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="82.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -432,59 +471,86 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="82.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="b">
         <v>1</v>
@@ -501,13 +567,22 @@
       <c r="F7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="82.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="b">
         <v>1</v>
@@ -515,22 +590,31 @@
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="b">
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="82.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="b">
         <v>1</v>
@@ -538,91 +622,127 @@
       <c r="C9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="82.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
+      <c r="C10" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="82.5" customHeight="1">
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="78.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="78.0" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="73.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="73.5" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="78.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="b">
         <v>1</v>
@@ -631,17 +751,98 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="78.0" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" ht="78.0" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" ht="78.0" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" ht="78.0" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" ht="78.0" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" ht="78.0" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
